--- a/new original/_Lang_Chinese/Lang/CN/Game/Race.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>

--- a/new original/_Lang_Chinese/Lang/CN/Game/Race.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>
